--- a/export/IHR Costing Tool - JEE Score Input Template.xlsx
+++ b/export/IHR Costing Tool - JEE Score Input Template.xlsx
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/export/IHR Costing Tool - JEE Score Input Template.xlsx
+++ b/export/IHR Costing Tool - JEE Score Input Template.xlsx
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
